--- a/StdITM.xlsx
+++ b/StdITM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PSU_HY" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="339">
   <si>
     <t>PSU_PN</t>
   </si>
@@ -981,6 +981,69 @@
   </si>
   <si>
     <t>0965320124</t>
+  </si>
+  <si>
+    <t>0894309156</t>
+  </si>
+  <si>
+    <t>0865287386</t>
+  </si>
+  <si>
+    <t>0869010108</t>
+  </si>
+  <si>
+    <t>0869963417</t>
+  </si>
+  <si>
+    <t>0642421791</t>
+  </si>
+  <si>
+    <t>0858297793</t>
+  </si>
+  <si>
+    <t>0852057373</t>
+  </si>
+  <si>
+    <t>0896596058</t>
+  </si>
+  <si>
+    <t>0602733603</t>
+  </si>
+  <si>
+    <t>0813556395</t>
+  </si>
+  <si>
+    <t>0672955205</t>
+  </si>
+  <si>
+    <t>0693225977</t>
+  </si>
+  <si>
+    <t>0842572729</t>
+  </si>
+  <si>
+    <t>0859350651</t>
+  </si>
+  <si>
+    <t>0668275243</t>
+  </si>
+  <si>
+    <t>0897372942</t>
+  </si>
+  <si>
+    <t>0897728940</t>
+  </si>
+  <si>
+    <t>0622238320</t>
+  </si>
+  <si>
+    <t>0824943853</t>
+  </si>
+  <si>
+    <t>0857247598</t>
+  </si>
+  <si>
+    <t>0942026721</t>
   </si>
 </sst>
 </file>
@@ -1093,9 +1156,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,6 +1173,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1396,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -1409,24 +1472,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2268,28 +2331,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2976,24 +3039,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3765,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -3778,24 +3841,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3806,6 +3869,9 @@
       <c r="B3" t="s">
         <v>224</v>
       </c>
+      <c r="C3" s="12" t="s">
+        <v>318</v>
+      </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
@@ -3817,6 +3883,9 @@
       <c r="B4" t="s">
         <v>225</v>
       </c>
+      <c r="C4" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -3856,6 +3925,9 @@
       <c r="B7" t="s">
         <v>230</v>
       </c>
+      <c r="C7" s="12" t="s">
+        <v>320</v>
+      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
@@ -3867,6 +3939,9 @@
       <c r="B8" t="s">
         <v>231</v>
       </c>
+      <c r="C8" s="12" t="s">
+        <v>321</v>
+      </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
@@ -3878,6 +3953,9 @@
       <c r="B9" t="s">
         <v>232</v>
       </c>
+      <c r="C9" s="12" t="s">
+        <v>322</v>
+      </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
@@ -3889,6 +3967,9 @@
       <c r="B10" t="s">
         <v>233</v>
       </c>
+      <c r="C10" s="12" t="s">
+        <v>323</v>
+      </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
@@ -3900,6 +3981,9 @@
       <c r="B11" t="s">
         <v>234</v>
       </c>
+      <c r="C11" s="12" t="s">
+        <v>324</v>
+      </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
@@ -3911,6 +3995,9 @@
       <c r="B12" t="s">
         <v>235</v>
       </c>
+      <c r="C12" s="12" t="s">
+        <v>325</v>
+      </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
@@ -3922,6 +4009,9 @@
       <c r="B13" t="s">
         <v>236</v>
       </c>
+      <c r="C13" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
@@ -3933,6 +4023,9 @@
       <c r="B14" t="s">
         <v>237</v>
       </c>
+      <c r="C14" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
@@ -3944,6 +4037,9 @@
       <c r="B15" t="s">
         <v>238</v>
       </c>
+      <c r="C15" s="12" t="s">
+        <v>328</v>
+      </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
@@ -3955,6 +4051,9 @@
       <c r="B16" t="s">
         <v>239</v>
       </c>
+      <c r="C16" s="12" t="s">
+        <v>329</v>
+      </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
@@ -3966,6 +4065,9 @@
       <c r="B17" t="s">
         <v>240</v>
       </c>
+      <c r="C17" s="12" t="s">
+        <v>330</v>
+      </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
@@ -3977,6 +4079,9 @@
       <c r="B18" t="s">
         <v>241</v>
       </c>
+      <c r="C18" s="12" t="s">
+        <v>331</v>
+      </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
@@ -3988,6 +4093,9 @@
       <c r="B19" t="s">
         <v>242</v>
       </c>
+      <c r="C19" s="12" t="s">
+        <v>332</v>
+      </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
@@ -3999,6 +4107,9 @@
       <c r="B20" t="s">
         <v>243</v>
       </c>
+      <c r="C20" s="12" t="s">
+        <v>333</v>
+      </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
@@ -4010,6 +4121,9 @@
       <c r="B21" t="s">
         <v>244</v>
       </c>
+      <c r="C21" s="12" t="s">
+        <v>334</v>
+      </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
@@ -4021,6 +4135,9 @@
       <c r="B22" t="s">
         <v>245</v>
       </c>
+      <c r="C22" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
@@ -4032,6 +4149,9 @@
       <c r="B23" t="s">
         <v>246</v>
       </c>
+      <c r="C23" s="12" t="s">
+        <v>336</v>
+      </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
@@ -4071,6 +4191,9 @@
       <c r="B26" t="s">
         <v>251</v>
       </c>
+      <c r="C26" s="12" t="s">
+        <v>337</v>
+      </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
@@ -4207,6 +4330,9 @@
       </c>
       <c r="B36" t="s">
         <v>270</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
